--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/7 ANALISIS PRESUPUESTO.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/7 ANALISIS PRESUPUESTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B4FB0-493B-4E49-B2E8-191CE67B2DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBFE68E-1312-43C9-93CC-2183C6839372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis" sheetId="4" r:id="rId1"/>
@@ -141,7 +141,7 @@
     <t>Auditoria de Estados Financieros</t>
   </si>
   <si>
-    <t>ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -292,6 +292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -299,9 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,80 +599,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="N6" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="3"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -747,148 +747,148 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
     </row>
     <row r="35" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
@@ -896,164 +896,164 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
     </row>
     <row r="48" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
@@ -1517,158 +1517,158 @@
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
     </row>
     <row r="139" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
@@ -1689,158 +1689,158 @@
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="16"/>
     </row>
     <row r="156" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
@@ -1848,144 +1848,144 @@
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
     </row>
     <row r="162" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="15"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="16"/>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="16"/>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="16"/>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
-      <c r="M167" s="15"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="16"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B168" s="15"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
-      <c r="M168" s="15"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="16"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="16"/>
+      <c r="L168" s="16"/>
+      <c r="M168" s="16"/>
     </row>
     <row r="170" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
@@ -2006,200 +2006,200 @@
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="15"/>
-      <c r="M175" s="15"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="16"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="16"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B176" s="15"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="15"/>
-      <c r="M176" s="15"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="16"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="15"/>
-      <c r="M177" s="15"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="16"/>
+      <c r="L177" s="16"/>
+      <c r="M177" s="16"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B178" s="15"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="15"/>
-      <c r="M178" s="15"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="16"/>
+      <c r="L178" s="16"/>
+      <c r="M178" s="16"/>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B179" s="15"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="15"/>
-      <c r="M179" s="15"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="16"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="16"/>
+      <c r="L180" s="16"/>
+      <c r="M180" s="16"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="15"/>
-      <c r="M181" s="15"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="16"/>
+      <c r="L181" s="16"/>
+      <c r="M181" s="16"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="15"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="15"/>
-      <c r="M182" s="15"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="16"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
-      <c r="M183" s="15"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="16"/>
+      <c r="L183" s="16"/>
+      <c r="M183" s="16"/>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B184" s="15"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="15"/>
-      <c r="M184" s="15"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="16"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="16"/>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B185" s="15"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="16"/>
+      <c r="L185" s="16"/>
+      <c r="M185" s="16"/>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="16"/>
+      <c r="L186" s="16"/>
+      <c r="M186" s="16"/>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="15"/>
-      <c r="M187" s="15"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="16"/>
+      <c r="L187" s="16"/>
+      <c r="M187" s="16"/>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B188" s="15"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="15"/>
-      <c r="M188" s="15"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="16"/>
+      <c r="L188" s="16"/>
+      <c r="M188" s="16"/>
     </row>
     <row r="190" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B190" s="6" t="s">
@@ -2220,186 +2220,186 @@
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="15"/>
-      <c r="M195" s="15"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="16"/>
+      <c r="J195" s="16"/>
+      <c r="K195" s="16"/>
+      <c r="L195" s="16"/>
+      <c r="M195" s="16"/>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="15"/>
-      <c r="M196" s="15"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="16"/>
+      <c r="J196" s="16"/>
+      <c r="K196" s="16"/>
+      <c r="L196" s="16"/>
+      <c r="M196" s="16"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="15"/>
-      <c r="M197" s="15"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="16"/>
+      <c r="J197" s="16"/>
+      <c r="K197" s="16"/>
+      <c r="L197" s="16"/>
+      <c r="M197" s="16"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B198" s="15"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="15"/>
-      <c r="M198" s="15"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
+      <c r="K198" s="16"/>
+      <c r="L198" s="16"/>
+      <c r="M198" s="16"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="15"/>
-      <c r="M199" s="15"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="16"/>
+      <c r="J199" s="16"/>
+      <c r="K199" s="16"/>
+      <c r="L199" s="16"/>
+      <c r="M199" s="16"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="15"/>
-      <c r="M200" s="15"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="16"/>
+      <c r="J200" s="16"/>
+      <c r="K200" s="16"/>
+      <c r="L200" s="16"/>
+      <c r="M200" s="16"/>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B201" s="15"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="15"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="15"/>
-      <c r="M201" s="15"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16"/>
+      <c r="K201" s="16"/>
+      <c r="L201" s="16"/>
+      <c r="M201" s="16"/>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B202" s="15"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
-      <c r="I202" s="15"/>
-      <c r="J202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="15"/>
-      <c r="M202" s="15"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="16"/>
+      <c r="J202" s="16"/>
+      <c r="K202" s="16"/>
+      <c r="L202" s="16"/>
+      <c r="M202" s="16"/>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B203" s="15"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
-      <c r="I203" s="15"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="15"/>
-      <c r="L203" s="15"/>
-      <c r="M203" s="15"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+      <c r="J203" s="16"/>
+      <c r="K203" s="16"/>
+      <c r="L203" s="16"/>
+      <c r="M203" s="16"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="15"/>
-      <c r="C204" s="15"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
-      <c r="I204" s="15"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="15"/>
-      <c r="M204" s="15"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="16"/>
+      <c r="K204" s="16"/>
+      <c r="L204" s="16"/>
+      <c r="M204" s="16"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
-      <c r="I205" s="15"/>
-      <c r="J205" s="15"/>
-      <c r="K205" s="15"/>
-      <c r="L205" s="15"/>
-      <c r="M205" s="15"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+      <c r="J205" s="16"/>
+      <c r="K205" s="16"/>
+      <c r="L205" s="16"/>
+      <c r="M205" s="16"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="15"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
-      <c r="I206" s="15"/>
-      <c r="J206" s="15"/>
-      <c r="K206" s="15"/>
-      <c r="L206" s="15"/>
-      <c r="M206" s="15"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="16"/>
+      <c r="J206" s="16"/>
+      <c r="K206" s="16"/>
+      <c r="L206" s="16"/>
+      <c r="M206" s="16"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B207" s="15"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
-      <c r="I207" s="15"/>
-      <c r="J207" s="15"/>
-      <c r="K207" s="15"/>
-      <c r="L207" s="15"/>
-      <c r="M207" s="15"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="16"/>
+      <c r="J207" s="16"/>
+      <c r="K207" s="16"/>
+      <c r="L207" s="16"/>
+      <c r="M207" s="16"/>
     </row>
     <row r="209" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B209" s="9" t="s">
@@ -2407,200 +2407,200 @@
       </c>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B211" s="15"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="15"/>
-      <c r="J211" s="15"/>
-      <c r="K211" s="15"/>
-      <c r="L211" s="15"/>
-      <c r="M211" s="15"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+      <c r="I211" s="16"/>
+      <c r="J211" s="16"/>
+      <c r="K211" s="16"/>
+      <c r="L211" s="16"/>
+      <c r="M211" s="16"/>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B212" s="15"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="15"/>
-      <c r="J212" s="15"/>
-      <c r="K212" s="15"/>
-      <c r="L212" s="15"/>
-      <c r="M212" s="15"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="16"/>
+      <c r="J212" s="16"/>
+      <c r="K212" s="16"/>
+      <c r="L212" s="16"/>
+      <c r="M212" s="16"/>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B213" s="15"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
-      <c r="I213" s="15"/>
-      <c r="J213" s="15"/>
-      <c r="K213" s="15"/>
-      <c r="L213" s="15"/>
-      <c r="M213" s="15"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="16"/>
+      <c r="J213" s="16"/>
+      <c r="K213" s="16"/>
+      <c r="L213" s="16"/>
+      <c r="M213" s="16"/>
     </row>
     <row r="214" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="15"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="15"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="15"/>
-      <c r="M214" s="15"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="16"/>
+      <c r="J214" s="16"/>
+      <c r="K214" s="16"/>
+      <c r="L214" s="16"/>
+      <c r="M214" s="16"/>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B215" s="15"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
-      <c r="I215" s="15"/>
-      <c r="J215" s="15"/>
-      <c r="K215" s="15"/>
-      <c r="L215" s="15"/>
-      <c r="M215" s="15"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="16"/>
+      <c r="J215" s="16"/>
+      <c r="K215" s="16"/>
+      <c r="L215" s="16"/>
+      <c r="M215" s="16"/>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="15"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
-      <c r="I216" s="15"/>
-      <c r="J216" s="15"/>
-      <c r="K216" s="15"/>
-      <c r="L216" s="15"/>
-      <c r="M216" s="15"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="16"/>
+      <c r="J216" s="16"/>
+      <c r="K216" s="16"/>
+      <c r="L216" s="16"/>
+      <c r="M216" s="16"/>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B217" s="15"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
-      <c r="I217" s="15"/>
-      <c r="J217" s="15"/>
-      <c r="K217" s="15"/>
-      <c r="L217" s="15"/>
-      <c r="M217" s="15"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="16"/>
+      <c r="J217" s="16"/>
+      <c r="K217" s="16"/>
+      <c r="L217" s="16"/>
+      <c r="M217" s="16"/>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B218" s="15"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
-      <c r="I218" s="15"/>
-      <c r="J218" s="15"/>
-      <c r="K218" s="15"/>
-      <c r="L218" s="15"/>
-      <c r="M218" s="15"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="16"/>
+      <c r="J218" s="16"/>
+      <c r="K218" s="16"/>
+      <c r="L218" s="16"/>
+      <c r="M218" s="16"/>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="15"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
-      <c r="I219" s="15"/>
-      <c r="J219" s="15"/>
-      <c r="K219" s="15"/>
-      <c r="L219" s="15"/>
-      <c r="M219" s="15"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="16"/>
+      <c r="J219" s="16"/>
+      <c r="K219" s="16"/>
+      <c r="L219" s="16"/>
+      <c r="M219" s="16"/>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B220" s="15"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
-      <c r="I220" s="15"/>
-      <c r="J220" s="15"/>
-      <c r="K220" s="15"/>
-      <c r="L220" s="15"/>
-      <c r="M220" s="15"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+      <c r="I220" s="16"/>
+      <c r="J220" s="16"/>
+      <c r="K220" s="16"/>
+      <c r="L220" s="16"/>
+      <c r="M220" s="16"/>
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B221" s="15"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
-      <c r="K221" s="15"/>
-      <c r="L221" s="15"/>
-      <c r="M221" s="15"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="16"/>
+      <c r="J221" s="16"/>
+      <c r="K221" s="16"/>
+      <c r="L221" s="16"/>
+      <c r="M221" s="16"/>
     </row>
     <row r="222" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="15"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
-      <c r="I222" s="15"/>
-      <c r="J222" s="15"/>
-      <c r="K222" s="15"/>
-      <c r="L222" s="15"/>
-      <c r="M222" s="15"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="16"/>
+      <c r="J222" s="16"/>
+      <c r="K222" s="16"/>
+      <c r="L222" s="16"/>
+      <c r="M222" s="16"/>
     </row>
     <row r="223" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B223" s="15"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
-      <c r="I223" s="15"/>
-      <c r="J223" s="15"/>
-      <c r="K223" s="15"/>
-      <c r="L223" s="15"/>
-      <c r="M223" s="15"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="16"/>
+      <c r="J223" s="16"/>
+      <c r="K223" s="16"/>
+      <c r="L223" s="16"/>
+      <c r="M223" s="16"/>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="15"/>
-      <c r="C224" s="15"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
-      <c r="I224" s="15"/>
-      <c r="J224" s="15"/>
-      <c r="K224" s="15"/>
-      <c r="L224" s="15"/>
-      <c r="M224" s="15"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="16"/>
+      <c r="J224" s="16"/>
+      <c r="K224" s="16"/>
+      <c r="L224" s="16"/>
+      <c r="M224" s="16"/>
     </row>
     <row r="226" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B226" s="4" t="s">
